--- a/data/pca/factorExposure/factorExposure_2014-08-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.005351107816153087</v>
+        <v>0.02027314195422783</v>
       </c>
       <c r="C2">
-        <v>0.1220900648537549</v>
+        <v>0.06754278894417066</v>
       </c>
       <c r="D2">
-        <v>-0.01846256929355739</v>
+        <v>-0.03113867447481072</v>
       </c>
       <c r="E2">
-        <v>-0.2198471687809755</v>
+        <v>0.01122582720900281</v>
       </c>
       <c r="F2">
-        <v>0.05698973614002824</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.04900851414572092</v>
+      </c>
+      <c r="G2">
+        <v>-0.1572463624049835</v>
+      </c>
+      <c r="H2">
+        <v>0.03810591138477569</v>
+      </c>
+      <c r="I2">
+        <v>0.01533191512036245</v>
+      </c>
+      <c r="J2">
+        <v>-0.123498732527576</v>
+      </c>
+      <c r="K2">
+        <v>0.04718868803626692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01464622667819441</v>
+        <v>0.01951788191599245</v>
       </c>
       <c r="C4">
-        <v>0.1723820963767651</v>
+        <v>0.142382984240961</v>
       </c>
       <c r="D4">
-        <v>-0.04058486204708286</v>
+        <v>-0.06542188689170128</v>
       </c>
       <c r="E4">
-        <v>-0.05584881249879489</v>
+        <v>0.005220460003809219</v>
       </c>
       <c r="F4">
-        <v>-0.06015845013204017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06343582908808772</v>
+      </c>
+      <c r="G4">
+        <v>-0.0271233946973712</v>
+      </c>
+      <c r="H4">
+        <v>-0.01204808980994292</v>
+      </c>
+      <c r="I4">
+        <v>-0.05705008109285385</v>
+      </c>
+      <c r="J4">
+        <v>-0.09271162475980552</v>
+      </c>
+      <c r="K4">
+        <v>-0.01318738581618837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.0279265117369276</v>
+        <v>0.04049180514388424</v>
       </c>
       <c r="C6">
-        <v>0.07477818637731273</v>
+        <v>0.08521341519985925</v>
       </c>
       <c r="D6">
-        <v>-0.04729720497372027</v>
+        <v>-0.02802858276250932</v>
       </c>
       <c r="E6">
-        <v>-0.05116192491081958</v>
+        <v>-0.02471764182464231</v>
       </c>
       <c r="F6">
-        <v>0.006562970883340192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02287673439714747</v>
+      </c>
+      <c r="G6">
+        <v>-0.04740145022895851</v>
+      </c>
+      <c r="H6">
+        <v>-0.05403617887274927</v>
+      </c>
+      <c r="I6">
+        <v>-0.05360881830514399</v>
+      </c>
+      <c r="J6">
+        <v>0.01653585243773164</v>
+      </c>
+      <c r="K6">
+        <v>0.03203514581594107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.007235712473841677</v>
+        <v>0.01897740933331172</v>
       </c>
       <c r="C7">
-        <v>0.08077042768477415</v>
+        <v>0.07152969508861647</v>
       </c>
       <c r="D7">
-        <v>-0.0396676848262214</v>
+        <v>-0.03316421513590365</v>
       </c>
       <c r="E7">
-        <v>-0.007842979211289765</v>
+        <v>-0.00383283707113112</v>
       </c>
       <c r="F7">
-        <v>-0.01940736915263863</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.01316523111620651</v>
+      </c>
+      <c r="G7">
+        <v>0.01090222875355049</v>
+      </c>
+      <c r="H7">
+        <v>-0.02311996594232924</v>
+      </c>
+      <c r="I7">
+        <v>-0.05477861103810232</v>
+      </c>
+      <c r="J7">
+        <v>-0.09636696891940562</v>
+      </c>
+      <c r="K7">
+        <v>0.03100343733925793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01057145762879916</v>
+        <v>0.00170754890993549</v>
       </c>
       <c r="C8">
-        <v>0.07263748128243773</v>
+        <v>0.06152200668720192</v>
       </c>
       <c r="D8">
-        <v>-0.03032146022802231</v>
+        <v>-0.04831596861906801</v>
       </c>
       <c r="E8">
-        <v>-0.06774515703095832</v>
+        <v>-0.03542596911864062</v>
       </c>
       <c r="F8">
-        <v>-0.0126805133577535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.03029085537851127</v>
+      </c>
+      <c r="G8">
+        <v>-0.05894632121878081</v>
+      </c>
+      <c r="H8">
+        <v>0.01319460389498799</v>
+      </c>
+      <c r="I8">
+        <v>-0.05491407527603369</v>
+      </c>
+      <c r="J8">
+        <v>-0.01138875209499294</v>
+      </c>
+      <c r="K8">
+        <v>-0.004907665221480824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.008951685544897918</v>
+        <v>0.01316984329352762</v>
       </c>
       <c r="C9">
-        <v>0.1229950106701159</v>
+        <v>0.1003371064176532</v>
       </c>
       <c r="D9">
-        <v>-0.0513437247074951</v>
+        <v>-0.04077443111676039</v>
       </c>
       <c r="E9">
-        <v>-0.01011957621559564</v>
+        <v>0.02471669426685412</v>
       </c>
       <c r="F9">
-        <v>-0.002386899124021276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.03276386683817666</v>
+      </c>
+      <c r="G9">
+        <v>-0.02008088812088656</v>
+      </c>
+      <c r="H9">
+        <v>0.005695430805466277</v>
+      </c>
+      <c r="I9">
+        <v>-0.06008132554651079</v>
+      </c>
+      <c r="J9">
+        <v>-0.09614938477468847</v>
+      </c>
+      <c r="K9">
+        <v>0.01493920098394862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2591256098043194</v>
+        <v>0.2454105998036558</v>
       </c>
       <c r="C10">
-        <v>-0.07332486419236418</v>
+        <v>-0.09413947830190768</v>
       </c>
       <c r="D10">
-        <v>0.01820613700564855</v>
+        <v>0.006230385768906723</v>
       </c>
       <c r="E10">
-        <v>0.02920391727753117</v>
+        <v>-0.05543517881837721</v>
       </c>
       <c r="F10">
-        <v>-0.02322643061499464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.009590056843427267</v>
+      </c>
+      <c r="G10">
+        <v>-0.01685448957136715</v>
+      </c>
+      <c r="H10">
+        <v>-0.02820832075487984</v>
+      </c>
+      <c r="I10">
+        <v>-0.04353358697170539</v>
+      </c>
+      <c r="J10">
+        <v>-0.01722465279193994</v>
+      </c>
+      <c r="K10">
+        <v>-0.1308058963705671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.004489122446988623</v>
+        <v>0.01755193348249958</v>
       </c>
       <c r="C11">
-        <v>0.07011014234675737</v>
+        <v>0.07971623157737905</v>
       </c>
       <c r="D11">
-        <v>-0.03121829313258946</v>
+        <v>-0.03872891152842159</v>
       </c>
       <c r="E11">
-        <v>0.02237541990976396</v>
+        <v>0.01262375526219225</v>
       </c>
       <c r="F11">
-        <v>-0.01127504715920339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.001785303076100084</v>
+      </c>
+      <c r="G11">
+        <v>0.01240607034471121</v>
+      </c>
+      <c r="H11">
+        <v>-0.003011451951009449</v>
+      </c>
+      <c r="I11">
+        <v>-0.02179609000212988</v>
+      </c>
+      <c r="J11">
+        <v>-0.02497291201182006</v>
+      </c>
+      <c r="K11">
+        <v>0.02556681082929135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.005859897389283992</v>
+        <v>0.01702816268672017</v>
       </c>
       <c r="C12">
-        <v>0.04923896521260548</v>
+        <v>0.05361537309100656</v>
       </c>
       <c r="D12">
-        <v>-0.03164186898198871</v>
+        <v>-0.02682084509585725</v>
       </c>
       <c r="E12">
-        <v>0.02131424380499779</v>
+        <v>0.01148884221602758</v>
       </c>
       <c r="F12">
-        <v>0.0192154680177262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01522886369128977</v>
+      </c>
+      <c r="G12">
+        <v>-0.003193288857331716</v>
+      </c>
+      <c r="H12">
+        <v>-0.01889835717451137</v>
+      </c>
+      <c r="I12">
+        <v>-0.02790285547926807</v>
+      </c>
+      <c r="J12">
+        <v>-0.01836948535314919</v>
+      </c>
+      <c r="K12">
+        <v>0.01009985495796205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.01227718207464803</v>
+        <v>0.00639549187070949</v>
       </c>
       <c r="C13">
-        <v>0.124251162483303</v>
+        <v>0.1090000376935928</v>
       </c>
       <c r="D13">
-        <v>-0.07277931861205386</v>
+        <v>-0.04362810678705358</v>
       </c>
       <c r="E13">
-        <v>-0.04266911697602461</v>
+        <v>0.009789515726870269</v>
       </c>
       <c r="F13">
-        <v>0.06811711546160841</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.01161133113156938</v>
+      </c>
+      <c r="G13">
+        <v>-0.161856212977577</v>
+      </c>
+      <c r="H13">
+        <v>-0.1005822523461926</v>
+      </c>
+      <c r="I13">
+        <v>-0.00624019561128789</v>
+      </c>
+      <c r="J13">
+        <v>-0.2104134448586222</v>
+      </c>
+      <c r="K13">
+        <v>-0.1368261397917948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.009522411550567586</v>
+        <v>0.02118026543058438</v>
       </c>
       <c r="C14">
-        <v>0.07832360511134548</v>
+        <v>0.07344869805023117</v>
       </c>
       <c r="D14">
-        <v>-0.04368084405279505</v>
+        <v>-0.0481890234878641</v>
       </c>
       <c r="E14">
-        <v>-0.01935188568410913</v>
+        <v>-0.004548288792866449</v>
       </c>
       <c r="F14">
-        <v>0.04218689941580236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03032696767776501</v>
+      </c>
+      <c r="G14">
+        <v>-0.02852115537152446</v>
+      </c>
+      <c r="H14">
+        <v>-0.07861715130465882</v>
+      </c>
+      <c r="I14">
+        <v>-0.1372636231706896</v>
+      </c>
+      <c r="J14">
+        <v>-0.1439789622256218</v>
+      </c>
+      <c r="K14">
+        <v>0.04071332449372608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.0004571719802717801</v>
+        <v>0.002918244732013691</v>
       </c>
       <c r="C15">
-        <v>0.07937705325615785</v>
+        <v>0.07281546044704586</v>
       </c>
       <c r="D15">
-        <v>-0.02881789280975899</v>
+        <v>-0.03177101610046529</v>
       </c>
       <c r="E15">
-        <v>-0.02992616911469025</v>
+        <v>-0.004243948886907592</v>
       </c>
       <c r="F15">
-        <v>-0.02047212440384697</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.03278572733084511</v>
+      </c>
+      <c r="G15">
+        <v>-0.01324664450822866</v>
+      </c>
+      <c r="H15">
+        <v>-0.02338837774341419</v>
+      </c>
+      <c r="I15">
+        <v>-0.06072549636733544</v>
+      </c>
+      <c r="J15">
+        <v>-0.05423251230284808</v>
+      </c>
+      <c r="K15">
+        <v>0.0342384935433416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.007433588706116861</v>
+        <v>0.01646297073797068</v>
       </c>
       <c r="C16">
-        <v>0.05680577190199632</v>
+        <v>0.06076422796895727</v>
       </c>
       <c r="D16">
-        <v>-0.02789912229202491</v>
+        <v>-0.02696588415930943</v>
       </c>
       <c r="E16">
-        <v>0.01611770846137458</v>
+        <v>0.01113947517498373</v>
       </c>
       <c r="F16">
-        <v>0.001299682338385263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.0003411598358810626</v>
+      </c>
+      <c r="G16">
+        <v>0.007227231852579759</v>
+      </c>
+      <c r="H16">
+        <v>-0.002498037338692849</v>
+      </c>
+      <c r="I16">
+        <v>-0.01540919289803304</v>
+      </c>
+      <c r="J16">
+        <v>-0.01764075628280323</v>
+      </c>
+      <c r="K16">
+        <v>0.01915109537775392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01138410653948869</v>
+        <v>0.01498678894591688</v>
       </c>
       <c r="C20">
-        <v>0.09544330109226531</v>
+        <v>0.08497170286129445</v>
       </c>
       <c r="D20">
-        <v>-0.03668380017680015</v>
+        <v>-0.02609072582282126</v>
       </c>
       <c r="E20">
-        <v>0.04028718628206367</v>
+        <v>-0.01005529886219652</v>
       </c>
       <c r="F20">
-        <v>0.007515996158128905</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01405917385982409</v>
+      </c>
+      <c r="G20">
+        <v>0.02033576316940738</v>
+      </c>
+      <c r="H20">
+        <v>-0.03068112534615051</v>
+      </c>
+      <c r="I20">
+        <v>-0.06083611287042091</v>
+      </c>
+      <c r="J20">
+        <v>-0.04880263363037006</v>
+      </c>
+      <c r="K20">
+        <v>0.01689683722021807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.0002598830764571025</v>
+        <v>0.01346693315604379</v>
       </c>
       <c r="C21">
-        <v>0.08005052469473213</v>
+        <v>0.06707208985268552</v>
       </c>
       <c r="D21">
-        <v>0.01301808845313485</v>
+        <v>-0.01800735840720811</v>
       </c>
       <c r="E21">
-        <v>-0.04039348474770414</v>
+        <v>-0.01623672348443096</v>
       </c>
       <c r="F21">
-        <v>0.08481985707360874</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.05596816285523336</v>
+      </c>
+      <c r="G21">
+        <v>-0.07365984878425283</v>
+      </c>
+      <c r="H21">
+        <v>-0.01217159451368005</v>
+      </c>
+      <c r="I21">
+        <v>-0.08210746124381094</v>
+      </c>
+      <c r="J21">
+        <v>-0.1173029929432458</v>
+      </c>
+      <c r="K21">
+        <v>-0.005054785620167432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.007892550781021352</v>
+        <v>0.007895056780329325</v>
       </c>
       <c r="C22">
-        <v>0.2349825348213345</v>
+        <v>0.1698933326410653</v>
       </c>
       <c r="D22">
-        <v>0.08043939636358167</v>
+        <v>-0.01974946154758559</v>
       </c>
       <c r="E22">
-        <v>-0.3414206695178541</v>
+        <v>-0.03705642878559501</v>
       </c>
       <c r="F22">
-        <v>-0.2831270793389175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.382032876578718</v>
+      </c>
+      <c r="G22">
+        <v>-0.3481516721830802</v>
+      </c>
+      <c r="H22">
+        <v>-0.01590166658371931</v>
+      </c>
+      <c r="I22">
+        <v>0.2719106108612401</v>
+      </c>
+      <c r="J22">
+        <v>0.2070761918661691</v>
+      </c>
+      <c r="K22">
+        <v>0.02968126076270611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.008915261530582076</v>
+        <v>0.0130166511115298</v>
       </c>
       <c r="C23">
-        <v>0.2384752372193008</v>
+        <v>0.1731763413717953</v>
       </c>
       <c r="D23">
-        <v>0.08510879778997368</v>
+        <v>-0.01926470150298326</v>
       </c>
       <c r="E23">
-        <v>-0.3358518838624964</v>
+        <v>-0.03225199389244746</v>
       </c>
       <c r="F23">
-        <v>-0.2791286559379967</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.3714627400121558</v>
+      </c>
+      <c r="G23">
+        <v>-0.3394390286904517</v>
+      </c>
+      <c r="H23">
+        <v>-0.01525541093728906</v>
+      </c>
+      <c r="I23">
+        <v>0.2553852875117536</v>
+      </c>
+      <c r="J23">
+        <v>0.1905400621214339</v>
+      </c>
+      <c r="K23">
+        <v>0.03417031136860943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.004664197524017994</v>
+        <v>0.01717032252671519</v>
       </c>
       <c r="C24">
-        <v>0.06148119283963664</v>
+        <v>0.06402840556675582</v>
       </c>
       <c r="D24">
-        <v>-0.04325039348962979</v>
+        <v>-0.04059447625428958</v>
       </c>
       <c r="E24">
-        <v>0.01562687444061426</v>
+        <v>0.01334247114840338</v>
       </c>
       <c r="F24">
-        <v>-0.005607421704447098</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.004202629226254191</v>
+      </c>
+      <c r="G24">
+        <v>0.006837303355554512</v>
+      </c>
+      <c r="H24">
+        <v>-0.01401855634062315</v>
+      </c>
+      <c r="I24">
+        <v>-0.02676446219444218</v>
+      </c>
+      <c r="J24">
+        <v>-0.03407914979355171</v>
+      </c>
+      <c r="K24">
+        <v>0.02244852696091841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.005365477284317137</v>
+        <v>0.02127731204760091</v>
       </c>
       <c r="C25">
-        <v>0.06745577889284485</v>
+        <v>0.06767284271949696</v>
       </c>
       <c r="D25">
-        <v>-0.02148320875325059</v>
+        <v>-0.03301039992525852</v>
       </c>
       <c r="E25">
-        <v>0.02007209527155956</v>
+        <v>0.01709166037741167</v>
       </c>
       <c r="F25">
-        <v>8.333120569557403e-06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.006508333839517149</v>
+      </c>
+      <c r="G25">
+        <v>0.00510427530405377</v>
+      </c>
+      <c r="H25">
+        <v>-0.005608558805851466</v>
+      </c>
+      <c r="I25">
+        <v>-0.02573247250902954</v>
+      </c>
+      <c r="J25">
+        <v>-0.03168372135533899</v>
+      </c>
+      <c r="K25">
+        <v>0.01230349865980092</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.01312736559737445</v>
+        <v>0.02138239241068014</v>
       </c>
       <c r="C26">
-        <v>0.04563980002064494</v>
+        <v>0.05368746647943155</v>
       </c>
       <c r="D26">
-        <v>-0.08054083857054886</v>
+        <v>-0.06112143545927087</v>
       </c>
       <c r="E26">
-        <v>0.008671086641156346</v>
+        <v>0.01272457752179907</v>
       </c>
       <c r="F26">
-        <v>0.04821447538712242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.008215759700186854</v>
+      </c>
+      <c r="G26">
+        <v>0.01165992799196042</v>
+      </c>
+      <c r="H26">
+        <v>0.01619935747975726</v>
+      </c>
+      <c r="I26">
+        <v>-0.05652082564887505</v>
+      </c>
+      <c r="J26">
+        <v>-0.111458031213897</v>
+      </c>
+      <c r="K26">
+        <v>0.05819573514229575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3566448118338141</v>
+        <v>0.3087291512924943</v>
       </c>
       <c r="C28">
-        <v>-0.08555419812744715</v>
+        <v>-0.1137153157584899</v>
       </c>
       <c r="D28">
-        <v>0.01578672749233243</v>
+        <v>0.03409850679608124</v>
       </c>
       <c r="E28">
-        <v>0.0396285026300419</v>
+        <v>-0.01329119276011637</v>
       </c>
       <c r="F28">
-        <v>0.02201250645321805</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.01589758156673997</v>
+      </c>
+      <c r="G28">
+        <v>-0.0454636827063283</v>
+      </c>
+      <c r="H28">
+        <v>0.1183983772009132</v>
+      </c>
+      <c r="I28">
+        <v>-0.02718632240353655</v>
+      </c>
+      <c r="J28">
+        <v>-0.04825884798040787</v>
+      </c>
+      <c r="K28">
+        <v>-0.2120714277019939</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.006906015217922589</v>
+        <v>0.01777023566413409</v>
       </c>
       <c r="C29">
-        <v>0.08541933482082301</v>
+        <v>0.08241339763358224</v>
       </c>
       <c r="D29">
-        <v>-0.04858918382691763</v>
+        <v>-0.04978676107379573</v>
       </c>
       <c r="E29">
-        <v>-0.0002371984693237684</v>
+        <v>0.02135031580221089</v>
       </c>
       <c r="F29">
-        <v>0.04318901633349975</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02706330632974562</v>
+      </c>
+      <c r="G29">
+        <v>-0.02869816169204733</v>
+      </c>
+      <c r="H29">
+        <v>-0.1277958128897267</v>
+      </c>
+      <c r="I29">
+        <v>-0.1913043504328368</v>
+      </c>
+      <c r="J29">
+        <v>-0.2025266359513876</v>
+      </c>
+      <c r="K29">
+        <v>0.03759071317169851</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.0209946989235847</v>
+        <v>0.03494929893537636</v>
       </c>
       <c r="C30">
-        <v>0.1646327765160741</v>
+        <v>0.1411833297578843</v>
       </c>
       <c r="D30">
-        <v>-0.06689921672126249</v>
+        <v>-0.05539832334169248</v>
       </c>
       <c r="E30">
-        <v>-0.04526818093200152</v>
+        <v>-0.01315048109285141</v>
       </c>
       <c r="F30">
-        <v>-0.04591661264624482</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04522451390504256</v>
+      </c>
+      <c r="G30">
+        <v>-0.03299000372710037</v>
+      </c>
+      <c r="H30">
+        <v>-0.01808399499933348</v>
+      </c>
+      <c r="I30">
+        <v>-0.04381334146570116</v>
+      </c>
+      <c r="J30">
+        <v>-0.01843152052940182</v>
+      </c>
+      <c r="K30">
+        <v>0.04398781477088284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.003565224479856147</v>
+        <v>0.01479841667004124</v>
       </c>
       <c r="C31">
-        <v>0.05215317632083409</v>
+        <v>0.07720986246548631</v>
       </c>
       <c r="D31">
-        <v>-0.03301235315970286</v>
+        <v>-0.04153442586990445</v>
       </c>
       <c r="E31">
-        <v>0.02021020345702321</v>
+        <v>-0.000277864881202403</v>
       </c>
       <c r="F31">
-        <v>0.0103443252990298</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.005237500793994846</v>
+      </c>
+      <c r="G31">
+        <v>-0.002999000201382948</v>
+      </c>
+      <c r="H31">
+        <v>0.02803437624930097</v>
+      </c>
+      <c r="I31">
+        <v>-0.02826536435049311</v>
+      </c>
+      <c r="J31">
+        <v>-0.02556384378775672</v>
+      </c>
+      <c r="K31">
+        <v>0.01049756541233108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.01774599287907294</v>
+        <v>0.02193734635366813</v>
       </c>
       <c r="C32">
-        <v>0.07368934788269307</v>
+        <v>0.05405272546722854</v>
       </c>
       <c r="D32">
-        <v>-0.007275947473680097</v>
+        <v>-0.02533595048766091</v>
       </c>
       <c r="E32">
-        <v>-0.1429897162161983</v>
+        <v>0.02084506611167354</v>
       </c>
       <c r="F32">
-        <v>0.0242229757559953</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.01549330504068444</v>
+      </c>
+      <c r="G32">
+        <v>-0.1133463336238223</v>
+      </c>
+      <c r="H32">
+        <v>-0.06367698911129581</v>
+      </c>
+      <c r="I32">
+        <v>-0.07858478304445629</v>
+      </c>
+      <c r="J32">
+        <v>-0.1746599384290161</v>
+      </c>
+      <c r="K32">
+        <v>-0.2439469517326807</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.008980998842557689</v>
+        <v>0.01747061662336129</v>
       </c>
       <c r="C33">
-        <v>0.09641915172241976</v>
+        <v>0.101801937169193</v>
       </c>
       <c r="D33">
-        <v>-0.05817532478797263</v>
+        <v>-0.05206856677396032</v>
       </c>
       <c r="E33">
-        <v>-0.0006349132413487084</v>
+        <v>-0.006666117797951671</v>
       </c>
       <c r="F33">
-        <v>0.005094813665408564</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02117321404906462</v>
+      </c>
+      <c r="G33">
+        <v>-0.009638798601113984</v>
+      </c>
+      <c r="H33">
+        <v>-0.02214947068899549</v>
+      </c>
+      <c r="I33">
+        <v>-0.03254331723281582</v>
+      </c>
+      <c r="J33">
+        <v>-0.05499514308438284</v>
+      </c>
+      <c r="K33">
+        <v>-0.01724325728313629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.003997849361983612</v>
+        <v>0.01718509633210051</v>
       </c>
       <c r="C34">
-        <v>0.05281176213318889</v>
+        <v>0.05004605661922446</v>
       </c>
       <c r="D34">
-        <v>-0.0226462765612295</v>
+        <v>-0.02146951814034408</v>
       </c>
       <c r="E34">
-        <v>0.009112199669667986</v>
+        <v>0.01561460951014117</v>
       </c>
       <c r="F34">
-        <v>0.02170579422256684</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.005587979052125872</v>
+      </c>
+      <c r="G34">
+        <v>0.00605826069720278</v>
+      </c>
+      <c r="H34">
+        <v>-0.01849870744289115</v>
+      </c>
+      <c r="I34">
+        <v>-0.02591489587617928</v>
+      </c>
+      <c r="J34">
+        <v>0.008678864783384208</v>
+      </c>
+      <c r="K34">
+        <v>0.01118132050698632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.001659379638639825</v>
+        <v>0.01053191992139134</v>
       </c>
       <c r="C35">
-        <v>0.03187852527311751</v>
+        <v>0.04677112596200775</v>
       </c>
       <c r="D35">
-        <v>-0.01006314766873534</v>
+        <v>-0.02266967971935858</v>
       </c>
       <c r="E35">
-        <v>-0.000884598609914153</v>
+        <v>-0.006204688604895901</v>
       </c>
       <c r="F35">
-        <v>0.01276029684968042</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.004326122858580296</v>
+      </c>
+      <c r="G35">
+        <v>-0.01307311506280404</v>
+      </c>
+      <c r="H35">
+        <v>-0.04961444998907614</v>
+      </c>
+      <c r="I35">
+        <v>-0.1147970918380766</v>
+      </c>
+      <c r="J35">
+        <v>-0.101612742310873</v>
+      </c>
+      <c r="K35">
+        <v>0.00826507226906989</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.011616371588949</v>
+        <v>0.01360446786587136</v>
       </c>
       <c r="C36">
-        <v>0.0519087581118398</v>
+        <v>0.04586325160748525</v>
       </c>
       <c r="D36">
-        <v>-0.05811987667257906</v>
+        <v>-0.04363871014442849</v>
       </c>
       <c r="E36">
-        <v>0.004871378207801583</v>
+        <v>-0.006559402538092133</v>
       </c>
       <c r="F36">
-        <v>0.02003628736482669</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01316754456625673</v>
+      </c>
+      <c r="G36">
+        <v>-0.01001972743072795</v>
+      </c>
+      <c r="H36">
+        <v>0.01382968494502131</v>
+      </c>
+      <c r="I36">
+        <v>-0.04240131988841459</v>
+      </c>
+      <c r="J36">
+        <v>-0.08278585414499105</v>
+      </c>
+      <c r="K36">
+        <v>0.01970359381502091</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.03457103501232357</v>
+        <v>0.01070375886471094</v>
       </c>
       <c r="C38">
-        <v>0.04712914441279576</v>
+        <v>0.05659997328972458</v>
       </c>
       <c r="D38">
-        <v>-0.03892153059923192</v>
+        <v>-0.03693577372904591</v>
       </c>
       <c r="E38">
-        <v>0.01526481875134443</v>
+        <v>-0.04412889588202979</v>
       </c>
       <c r="F38">
-        <v>0.01212956491306388</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.02810155261285982</v>
+      </c>
+      <c r="G38">
+        <v>0.006611599495284688</v>
+      </c>
+      <c r="H38">
+        <v>-0.01584110385183032</v>
+      </c>
+      <c r="I38">
+        <v>-0.0447196368999154</v>
+      </c>
+      <c r="J38">
+        <v>-0.06270714854236323</v>
+      </c>
+      <c r="K38">
+        <v>-0.0673197234274697</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.0009719465292641708</v>
+        <v>0.02482795123258845</v>
       </c>
       <c r="C39">
-        <v>0.1284659020885462</v>
+        <v>0.1301221059917018</v>
       </c>
       <c r="D39">
-        <v>-0.05966676632376067</v>
+        <v>-0.05927450750477259</v>
       </c>
       <c r="E39">
-        <v>0.01094395148146967</v>
+        <v>-0.007618987403413477</v>
       </c>
       <c r="F39">
-        <v>0.01453798051471765</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01150226124374024</v>
+      </c>
+      <c r="G39">
+        <v>0.002506358581668686</v>
+      </c>
+      <c r="H39">
+        <v>-0.03918201209976336</v>
+      </c>
+      <c r="I39">
+        <v>-0.0479393414326047</v>
+      </c>
+      <c r="J39">
+        <v>-0.0102461722501616</v>
+      </c>
+      <c r="K39">
+        <v>0.08886009162390386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.005419643542779621</v>
+        <v>0.01446999312601487</v>
       </c>
       <c r="C40">
-        <v>0.04527510729337109</v>
+        <v>0.05959073125824894</v>
       </c>
       <c r="D40">
-        <v>-0.02957145621506466</v>
+        <v>-0.04492585079033137</v>
       </c>
       <c r="E40">
-        <v>-0.09952253913354772</v>
+        <v>0.004243247212557128</v>
       </c>
       <c r="F40">
-        <v>-0.06694992115978576</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.001353743827903974</v>
+      </c>
+      <c r="G40">
+        <v>-0.0338763980952704</v>
+      </c>
+      <c r="H40">
+        <v>-0.145871413529054</v>
+      </c>
+      <c r="I40">
+        <v>-0.02016173991189207</v>
+      </c>
+      <c r="J40">
+        <v>-0.03372289266049201</v>
+      </c>
+      <c r="K40">
+        <v>0.03995526604943325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01382761640951838</v>
+        <v>0.02265747069466383</v>
       </c>
       <c r="C41">
-        <v>0.02903317674180016</v>
+        <v>0.04807161889951232</v>
       </c>
       <c r="D41">
-        <v>-0.005140854202606227</v>
+        <v>-0.01502127657758858</v>
       </c>
       <c r="E41">
-        <v>0.01152011884057238</v>
+        <v>0.002438057971703756</v>
       </c>
       <c r="F41">
-        <v>0.01296790444158949</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.009698797925773689</v>
+      </c>
+      <c r="G41">
+        <v>0.01272999759460863</v>
+      </c>
+      <c r="H41">
+        <v>0.00862068587766468</v>
+      </c>
+      <c r="I41">
+        <v>-0.00925514499913609</v>
+      </c>
+      <c r="J41">
+        <v>-0.02503204276711611</v>
+      </c>
+      <c r="K41">
+        <v>-0.02571323956037222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.005502457035675094</v>
+        <v>0.01918504785132338</v>
       </c>
       <c r="C43">
-        <v>0.02961111887571657</v>
+        <v>0.04507363564604024</v>
       </c>
       <c r="D43">
-        <v>-0.02648751496357219</v>
+        <v>-0.02918851414417795</v>
       </c>
       <c r="E43">
-        <v>0.00763974248690096</v>
+        <v>-0.001623119870067627</v>
       </c>
       <c r="F43">
-        <v>0.001133734054660812</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.004507118718484406</v>
+      </c>
+      <c r="G43">
+        <v>0.01197370317282996</v>
+      </c>
+      <c r="H43">
+        <v>-0.0004555058654738956</v>
+      </c>
+      <c r="I43">
+        <v>-0.02073038396664513</v>
+      </c>
+      <c r="J43">
+        <v>-0.03179760752433909</v>
+      </c>
+      <c r="K43">
+        <v>0.00210266447671352</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01668195306507525</v>
+        <v>0.01791024845428558</v>
       </c>
       <c r="C44">
-        <v>0.1030305377264083</v>
+        <v>0.09813250985080957</v>
       </c>
       <c r="D44">
-        <v>-0.03933940558879679</v>
+        <v>-0.05759365114599906</v>
       </c>
       <c r="E44">
-        <v>-0.02550647803599015</v>
+        <v>-0.02717920121765344</v>
       </c>
       <c r="F44">
-        <v>-0.0302498985831833</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.05984923565870234</v>
+      </c>
+      <c r="G44">
+        <v>-0.03155384765570287</v>
+      </c>
+      <c r="H44">
+        <v>-0.04568137221804428</v>
+      </c>
+      <c r="I44">
+        <v>-0.01641261364118588</v>
+      </c>
+      <c r="J44">
+        <v>-0.04883456630611258</v>
+      </c>
+      <c r="K44">
+        <v>0.05002564410017385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.009389263594866935</v>
+        <v>0.005018929728444609</v>
       </c>
       <c r="C46">
-        <v>0.06910293438574362</v>
+        <v>0.06629043472709363</v>
       </c>
       <c r="D46">
-        <v>-0.05099643492360134</v>
+        <v>-0.02901862396337888</v>
       </c>
       <c r="E46">
-        <v>-0.008688365913025927</v>
+        <v>-0.01207351951811511</v>
       </c>
       <c r="F46">
-        <v>0.02234330569181804</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01216463875963869</v>
+      </c>
+      <c r="G46">
+        <v>-0.001682110618176452</v>
+      </c>
+      <c r="H46">
+        <v>-0.02508623841697941</v>
+      </c>
+      <c r="I46">
+        <v>-0.04171213681607378</v>
+      </c>
+      <c r="J46">
+        <v>-0.08940878390194276</v>
+      </c>
+      <c r="K46">
+        <v>0.02526409066505395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.01038321657656307</v>
+        <v>0.02181136384518659</v>
       </c>
       <c r="C47">
-        <v>0.06126907941729394</v>
+        <v>0.07397112704940007</v>
       </c>
       <c r="D47">
-        <v>-0.0442991053363984</v>
+        <v>-0.04413244375465113</v>
       </c>
       <c r="E47">
-        <v>0.03193412721582638</v>
+        <v>0.01558745270979678</v>
       </c>
       <c r="F47">
-        <v>0.05774524993420034</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.007090638033998776</v>
+      </c>
+      <c r="G47">
+        <v>0.00756667478881204</v>
+      </c>
+      <c r="H47">
+        <v>0.001560090677770457</v>
+      </c>
+      <c r="I47">
+        <v>-0.04088798675552874</v>
+      </c>
+      <c r="J47">
+        <v>-0.05953950454821102</v>
+      </c>
+      <c r="K47">
+        <v>-0.01614265233173866</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.01182851661178197</v>
+        <v>0.01507031791128228</v>
       </c>
       <c r="C48">
-        <v>0.05462038374042633</v>
+        <v>0.04550416976914493</v>
       </c>
       <c r="D48">
-        <v>-0.06876865834739544</v>
+        <v>-0.05214945916898583</v>
       </c>
       <c r="E48">
-        <v>0.01179473275961749</v>
+        <v>0.01617385446171011</v>
       </c>
       <c r="F48">
-        <v>0.01543765835112593</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02717989876195192</v>
+      </c>
+      <c r="G48">
+        <v>-0.005704682237878315</v>
+      </c>
+      <c r="H48">
+        <v>0.01909735913574526</v>
+      </c>
+      <c r="I48">
+        <v>-0.06170674406962008</v>
+      </c>
+      <c r="J48">
+        <v>-0.1140962832168051</v>
+      </c>
+      <c r="K48">
+        <v>0.03975089515475048</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02262862662390822</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.0507736191693469</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.01144077726670171</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.03034427181523305</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.0376068403622077</v>
+      </c>
+      <c r="G49">
+        <v>0.06449543327015778</v>
+      </c>
+      <c r="H49">
+        <v>-0.06805544403908313</v>
+      </c>
+      <c r="I49">
+        <v>-0.03663874938557759</v>
+      </c>
+      <c r="J49">
+        <v>0.1135881365217208</v>
+      </c>
+      <c r="K49">
+        <v>0.04073707677271666</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.002592049006898686</v>
+        <v>0.01571645739106125</v>
       </c>
       <c r="C50">
-        <v>0.06049307101829333</v>
+        <v>0.07509079641823906</v>
       </c>
       <c r="D50">
-        <v>-0.02910253679541945</v>
+        <v>-0.03232121521486088</v>
       </c>
       <c r="E50">
-        <v>-8.451454499907684e-05</v>
+        <v>0.008992158828647782</v>
       </c>
       <c r="F50">
-        <v>-0.002716865137707492</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02179760955956088</v>
+      </c>
+      <c r="G50">
+        <v>-0.005626661212388894</v>
+      </c>
+      <c r="H50">
+        <v>0.008101532778576035</v>
+      </c>
+      <c r="I50">
+        <v>-0.05505600732200953</v>
+      </c>
+      <c r="J50">
+        <v>-0.04110948442162207</v>
+      </c>
+      <c r="K50">
+        <v>-0.04945440903065943</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.002285884357884288</v>
+        <v>-0.00528329758153242</v>
       </c>
       <c r="C51">
-        <v>0.07253631075195471</v>
+        <v>0.03483103230974832</v>
       </c>
       <c r="D51">
-        <v>-0.0435166970429107</v>
+        <v>-0.02553675312292924</v>
       </c>
       <c r="E51">
-        <v>-0.03112752499535901</v>
+        <v>-0.02386543699618559</v>
       </c>
       <c r="F51">
-        <v>-0.01053984281694816</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01115379546818692</v>
+      </c>
+      <c r="G51">
+        <v>-0.02321205305684671</v>
+      </c>
+      <c r="H51">
+        <v>-0.01572695091765855</v>
+      </c>
+      <c r="I51">
+        <v>-0.04055286360254125</v>
+      </c>
+      <c r="J51">
+        <v>-0.1035227292798604</v>
+      </c>
+      <c r="K51">
+        <v>0.02614113562692755</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.03668001970027431</v>
+        <v>0.06102973595000429</v>
       </c>
       <c r="C53">
-        <v>0.1051691770487836</v>
+        <v>0.1312629507417232</v>
       </c>
       <c r="D53">
-        <v>-0.0686124646040451</v>
+        <v>-0.0571689582758084</v>
       </c>
       <c r="E53">
-        <v>0.1130972719683421</v>
+        <v>0.02759076303571936</v>
       </c>
       <c r="F53">
-        <v>0.03842722838090631</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.05015414526258522</v>
+      </c>
+      <c r="G53">
+        <v>0.03630647309252669</v>
+      </c>
+      <c r="H53">
+        <v>0.08997435953117702</v>
+      </c>
+      <c r="I53">
+        <v>0.01727425254038102</v>
+      </c>
+      <c r="J53">
+        <v>0.01761806982598679</v>
+      </c>
+      <c r="K53">
+        <v>-0.02440090581382098</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.003750164570307144</v>
+        <v>0.0165520817174323</v>
       </c>
       <c r="C54">
-        <v>0.07047447129891969</v>
+        <v>0.07064247024343091</v>
       </c>
       <c r="D54">
-        <v>-0.01470774142173782</v>
+        <v>-0.01175918432223953</v>
       </c>
       <c r="E54">
-        <v>0.02370432629672254</v>
+        <v>0.009893130279023445</v>
       </c>
       <c r="F54">
-        <v>0.0002400022781335072</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.000348481260387706</v>
+      </c>
+      <c r="G54">
+        <v>0.005044658344310192</v>
+      </c>
+      <c r="H54">
+        <v>-0.008287456287552638</v>
+      </c>
+      <c r="I54">
+        <v>-0.02986360420717574</v>
+      </c>
+      <c r="J54">
+        <v>-0.05407037915352268</v>
+      </c>
+      <c r="K54">
+        <v>0.02851838028971071</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01299268991169662</v>
+        <v>0.03102826935742179</v>
       </c>
       <c r="C55">
-        <v>0.07071956122749233</v>
+        <v>0.08200721633144596</v>
       </c>
       <c r="D55">
-        <v>-0.06138109145012227</v>
+        <v>-0.05323934669659137</v>
       </c>
       <c r="E55">
-        <v>0.05683478698184084</v>
+        <v>0.02603489618155411</v>
       </c>
       <c r="F55">
-        <v>0.03064325088304093</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.02639793537289571</v>
+      </c>
+      <c r="G55">
+        <v>0.0300587241308001</v>
+      </c>
+      <c r="H55">
+        <v>0.03888435083432418</v>
+      </c>
+      <c r="I55">
+        <v>0.01032100292751103</v>
+      </c>
+      <c r="J55">
+        <v>-0.003085979930277025</v>
+      </c>
+      <c r="K55">
+        <v>0.008511531064708529</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.0121316356261546</v>
+        <v>0.04983617367142494</v>
       </c>
       <c r="C56">
-        <v>0.1403647713785765</v>
+        <v>0.1521784963927655</v>
       </c>
       <c r="D56">
-        <v>-0.06873309178837196</v>
+        <v>-0.08066486277645968</v>
       </c>
       <c r="E56">
-        <v>0.08447652751490506</v>
+        <v>0.0519570309417377</v>
       </c>
       <c r="F56">
-        <v>0.05268148170203118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09662143908177463</v>
+      </c>
+      <c r="G56">
+        <v>0.04330351601393797</v>
+      </c>
+      <c r="H56">
+        <v>0.1575451962826193</v>
+      </c>
+      <c r="I56">
+        <v>0.01678372902762415</v>
+      </c>
+      <c r="J56">
+        <v>0.04082690220347169</v>
+      </c>
+      <c r="K56">
+        <v>-0.002579846531005381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02623693532724959</v>
+        <v>0.01824439241254225</v>
       </c>
       <c r="C58">
-        <v>0.2833268050219344</v>
+        <v>0.171940575677121</v>
       </c>
       <c r="D58">
-        <v>0.02543900051234477</v>
+        <v>-0.04352505312232748</v>
       </c>
       <c r="E58">
-        <v>-0.1877565012427584</v>
+        <v>-0.1324023865061651</v>
       </c>
       <c r="F58">
-        <v>-0.2132903604268667</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2284555733862393</v>
+      </c>
+      <c r="G58">
+        <v>-0.2472977195208116</v>
+      </c>
+      <c r="H58">
+        <v>0.07714582862352055</v>
+      </c>
+      <c r="I58">
+        <v>0.02304239364603469</v>
+      </c>
+      <c r="J58">
+        <v>-0.1476013270898673</v>
+      </c>
+      <c r="K58">
+        <v>-0.0932796405271732</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2908411341748618</v>
+        <v>0.2884413739877945</v>
       </c>
       <c r="C59">
-        <v>-0.00348185859699933</v>
+        <v>-0.05331655838178699</v>
       </c>
       <c r="D59">
-        <v>0.002209858069307888</v>
+        <v>0.006343224393544612</v>
       </c>
       <c r="E59">
-        <v>-0.0640019629204524</v>
+        <v>-0.006056902835992624</v>
       </c>
       <c r="F59">
-        <v>0.04770036901959934</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01809354953087656</v>
+      </c>
+      <c r="G59">
+        <v>-0.05408955105075827</v>
+      </c>
+      <c r="H59">
+        <v>0.004687312154718013</v>
+      </c>
+      <c r="I59">
+        <v>0.01715444075515604</v>
+      </c>
+      <c r="J59">
+        <v>0.004619987146797584</v>
+      </c>
+      <c r="K59">
+        <v>-0.02952306217041324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.114840478073685</v>
+        <v>0.1534044571383621</v>
       </c>
       <c r="C60">
-        <v>0.1431446553006375</v>
+        <v>0.1594594405451066</v>
       </c>
       <c r="D60">
-        <v>-0.0792850030401379</v>
+        <v>-0.04091880136473001</v>
       </c>
       <c r="E60">
-        <v>0.1390501114513797</v>
+        <v>0.122927647991218</v>
       </c>
       <c r="F60">
-        <v>0.1990904056134227</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.09981285860070438</v>
+      </c>
+      <c r="G60">
+        <v>0.09168699807650693</v>
+      </c>
+      <c r="H60">
+        <v>-0.2456162038305802</v>
+      </c>
+      <c r="I60">
+        <v>0.1872801158050782</v>
+      </c>
+      <c r="J60">
+        <v>0.1192520443230174</v>
+      </c>
+      <c r="K60">
+        <v>0.02506598320492406</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.003398331536905799</v>
+        <v>0.02470160458981246</v>
       </c>
       <c r="C61">
-        <v>0.0874535347005746</v>
+        <v>0.09858253327019839</v>
       </c>
       <c r="D61">
-        <v>-0.06936445259229677</v>
+        <v>-0.05383093827691968</v>
       </c>
       <c r="E61">
-        <v>0.03417776881696179</v>
+        <v>0.01051036832265387</v>
       </c>
       <c r="F61">
-        <v>0.02947777091919853</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.01507429646778639</v>
+      </c>
+      <c r="G61">
+        <v>0.01981131870801739</v>
+      </c>
+      <c r="H61">
+        <v>-0.02384332571863273</v>
+      </c>
+      <c r="I61">
+        <v>-0.05727860348266484</v>
+      </c>
+      <c r="J61">
+        <v>-0.01885390998686246</v>
+      </c>
+      <c r="K61">
+        <v>0.03508373043501643</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002543168158836472</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01498068485952125</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003610581052947081</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.02452334011486691</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.0259129772346416</v>
+      </c>
+      <c r="G62">
+        <v>-0.004514875263303427</v>
+      </c>
+      <c r="H62">
+        <v>-0.01714901239556794</v>
+      </c>
+      <c r="I62">
+        <v>-0.0177292109300752</v>
+      </c>
+      <c r="J62">
+        <v>-0.007713502001575391</v>
+      </c>
+      <c r="K62">
+        <v>-0.006261925842759385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.00180271574137524</v>
+        <v>0.02670559518656218</v>
       </c>
       <c r="C63">
-        <v>0.057197013626398</v>
+        <v>0.06319428800747456</v>
       </c>
       <c r="D63">
-        <v>-0.0371658839708992</v>
+        <v>-0.05875076906881765</v>
       </c>
       <c r="E63">
-        <v>0.01674402260124612</v>
+        <v>0.007667490004240963</v>
       </c>
       <c r="F63">
-        <v>-0.001426034267517421</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.007403275174246762</v>
+      </c>
+      <c r="G63">
+        <v>0.005607414263889435</v>
+      </c>
+      <c r="H63">
+        <v>0.007683020275262443</v>
+      </c>
+      <c r="I63">
+        <v>-0.05372861095407356</v>
+      </c>
+      <c r="J63">
+        <v>-0.04367321889573428</v>
+      </c>
+      <c r="K63">
+        <v>0.02053486288205216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.002838138411547014</v>
+        <v>0.01821461861891149</v>
       </c>
       <c r="C64">
-        <v>0.0958580638491809</v>
+        <v>0.09374581087171767</v>
       </c>
       <c r="D64">
-        <v>-0.07138786820697446</v>
+        <v>-0.03486156155954772</v>
       </c>
       <c r="E64">
-        <v>0.01288993155555443</v>
+        <v>0.02484037551939733</v>
       </c>
       <c r="F64">
-        <v>-0.01070019086114219</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.04807115815675091</v>
+      </c>
+      <c r="G64">
+        <v>-0.004366832085404774</v>
+      </c>
+      <c r="H64">
+        <v>-0.04814852046769293</v>
+      </c>
+      <c r="I64">
+        <v>-0.03017038856519951</v>
+      </c>
+      <c r="J64">
+        <v>-0.03682591895723947</v>
+      </c>
+      <c r="K64">
+        <v>0.08464901911129646</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.01506536535437954</v>
+        <v>0.03310955225893974</v>
       </c>
       <c r="C65">
-        <v>0.08846496538227445</v>
+        <v>0.0933585648973706</v>
       </c>
       <c r="D65">
-        <v>-0.0223185953563511</v>
+        <v>-0.02195266680144963</v>
       </c>
       <c r="E65">
-        <v>-0.01004133414763843</v>
+        <v>-0.01222686506827675</v>
       </c>
       <c r="F65">
-        <v>0.02521265768818879</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.001718395095555674</v>
+      </c>
+      <c r="G65">
+        <v>0.01147812559466114</v>
+      </c>
+      <c r="H65">
+        <v>-0.08561517875303462</v>
+      </c>
+      <c r="I65">
+        <v>0.01184600799387075</v>
+      </c>
+      <c r="J65">
+        <v>-0.005489342470349455</v>
+      </c>
+      <c r="K65">
+        <v>0.06018945829698211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.0004738648050954589</v>
+        <v>0.02288140520142282</v>
       </c>
       <c r="C66">
-        <v>0.1755836412289082</v>
+        <v>0.1720481496076655</v>
       </c>
       <c r="D66">
-        <v>-0.04934474006432044</v>
+        <v>-0.05088604485837425</v>
       </c>
       <c r="E66">
-        <v>-0.02199064278058386</v>
+        <v>-0.01116123350740672</v>
       </c>
       <c r="F66">
-        <v>0.02854085398724411</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.01200385941536913</v>
+      </c>
+      <c r="G66">
+        <v>-0.009642987728464844</v>
+      </c>
+      <c r="H66">
+        <v>-0.03107200898931848</v>
+      </c>
+      <c r="I66">
+        <v>-0.06047811614373901</v>
+      </c>
+      <c r="J66">
+        <v>-0.01597964260316796</v>
+      </c>
+      <c r="K66">
+        <v>0.06453443435339146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.03451955493476671</v>
+        <v>0.02029397455970642</v>
       </c>
       <c r="C67">
-        <v>0.02455417364443075</v>
+        <v>0.04971600451261363</v>
       </c>
       <c r="D67">
-        <v>-0.05549920490555711</v>
+        <v>-0.03851252765661026</v>
       </c>
       <c r="E67">
-        <v>0.05043631985738654</v>
+        <v>-0.03474562982057757</v>
       </c>
       <c r="F67">
-        <v>0.02476057948917807</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.002522122119441176</v>
+      </c>
+      <c r="G67">
+        <v>0.03134861000844036</v>
+      </c>
+      <c r="H67">
+        <v>-0.03814433349447133</v>
+      </c>
+      <c r="I67">
+        <v>-0.01086508116996542</v>
+      </c>
+      <c r="J67">
+        <v>-0.06011382300654283</v>
+      </c>
+      <c r="K67">
+        <v>-0.05026051778790937</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2942720794699754</v>
+        <v>0.2927449796754369</v>
       </c>
       <c r="C68">
-        <v>-0.02702849995565767</v>
+        <v>-0.07930542601935912</v>
       </c>
       <c r="D68">
-        <v>-0.007303468506915109</v>
+        <v>0.02738730220263519</v>
       </c>
       <c r="E68">
-        <v>-0.03013693493201284</v>
+        <v>0.01506877851163802</v>
       </c>
       <c r="F68">
-        <v>0.001170410263230439</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02293643668730727</v>
+      </c>
+      <c r="G68">
+        <v>-0.03345151918499076</v>
+      </c>
+      <c r="H68">
+        <v>0.02447836231827776</v>
+      </c>
+      <c r="I68">
+        <v>-0.0154479620041087</v>
+      </c>
+      <c r="J68">
+        <v>-0.03313609339010583</v>
+      </c>
+      <c r="K68">
+        <v>-0.03787292544072192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.00908091183584619</v>
+        <v>0.01015917967257772</v>
       </c>
       <c r="C69">
-        <v>0.05849587613941186</v>
+        <v>0.04785678468989747</v>
       </c>
       <c r="D69">
-        <v>-0.05254383422415512</v>
+        <v>-0.02566370682755336</v>
       </c>
       <c r="E69">
-        <v>0.03892171032188116</v>
+        <v>-0.001821882665522182</v>
       </c>
       <c r="F69">
-        <v>0.00939182964283408</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.01441697098382562</v>
+      </c>
+      <c r="G69">
+        <v>0.005389224788320123</v>
+      </c>
+      <c r="H69">
+        <v>-0.01729741870746481</v>
+      </c>
+      <c r="I69">
+        <v>-0.006074947411107492</v>
+      </c>
+      <c r="J69">
+        <v>-0.03641254988582937</v>
+      </c>
+      <c r="K69">
+        <v>-0.02874885686851836</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2872703456725564</v>
+        <v>0.2749690946596693</v>
       </c>
       <c r="C71">
-        <v>-0.03964444881265787</v>
+        <v>-0.0800571720900588</v>
       </c>
       <c r="D71">
-        <v>0.00888518941787169</v>
+        <v>0.02244124124195888</v>
       </c>
       <c r="E71">
-        <v>-0.02766035252429038</v>
+        <v>-0.01226809035204946</v>
       </c>
       <c r="F71">
-        <v>-0.01896803304910224</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.0482508542538987</v>
+      </c>
+      <c r="G71">
+        <v>-0.04236702604342606</v>
+      </c>
+      <c r="H71">
+        <v>0.02483747164279582</v>
+      </c>
+      <c r="I71">
+        <v>-0.02039897039267631</v>
+      </c>
+      <c r="J71">
+        <v>-0.05494274865191235</v>
+      </c>
+      <c r="K71">
+        <v>-0.1112144192459914</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.01181412235769591</v>
+        <v>0.0564225659869095</v>
       </c>
       <c r="C72">
-        <v>0.1469507890507549</v>
+        <v>0.1382317594869929</v>
       </c>
       <c r="D72">
-        <v>-0.0676829325538006</v>
+        <v>-0.05148193558066603</v>
       </c>
       <c r="E72">
-        <v>0.02254321156230369</v>
+        <v>0.04788922693787754</v>
       </c>
       <c r="F72">
-        <v>-0.03690759658779424</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.02554998473446599</v>
+      </c>
+      <c r="G72">
+        <v>0.02333232968090674</v>
+      </c>
+      <c r="H72">
+        <v>0.01214359054603607</v>
+      </c>
+      <c r="I72">
+        <v>-0.03000377865918832</v>
+      </c>
+      <c r="J72">
+        <v>-0.03591132012636213</v>
+      </c>
+      <c r="K72">
+        <v>0.1026896967936379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.083198625511514</v>
+        <v>0.1577047747487166</v>
       </c>
       <c r="C73">
-        <v>0.1173046938362406</v>
+        <v>0.1982289213738548</v>
       </c>
       <c r="D73">
-        <v>-0.1155335370981812</v>
+        <v>-0.08373653848140343</v>
       </c>
       <c r="E73">
-        <v>0.2207381525627165</v>
+        <v>0.07856477403286607</v>
       </c>
       <c r="F73">
-        <v>0.2146232932076147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1391305995728861</v>
+      </c>
+      <c r="G73">
+        <v>0.1852138747427393</v>
+      </c>
+      <c r="H73">
+        <v>-0.3833698059411499</v>
+      </c>
+      <c r="I73">
+        <v>0.2459283991576806</v>
+      </c>
+      <c r="J73">
+        <v>0.141633267008568</v>
+      </c>
+      <c r="K73">
+        <v>-0.1386794562876864</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01431457776329323</v>
+        <v>0.03864619791823948</v>
       </c>
       <c r="C74">
-        <v>0.08215671510276741</v>
+        <v>0.09756884572656321</v>
       </c>
       <c r="D74">
-        <v>-0.07081738052400505</v>
+        <v>-0.04391298554860176</v>
       </c>
       <c r="E74">
-        <v>0.06501186940985849</v>
+        <v>0.02381731330233049</v>
       </c>
       <c r="F74">
-        <v>0.03888321541086013</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.006059791177276366</v>
+      </c>
+      <c r="G74">
+        <v>0.03160978850804317</v>
+      </c>
+      <c r="H74">
+        <v>0.05703032477903045</v>
+      </c>
+      <c r="I74">
+        <v>0.01413401923058455</v>
+      </c>
+      <c r="J74">
+        <v>-0.02772515295589496</v>
+      </c>
+      <c r="K74">
+        <v>0.0151119392066737</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03374645937509533</v>
+        <v>0.06526475695256648</v>
       </c>
       <c r="C75">
-        <v>0.1403426717933765</v>
+        <v>0.1635673538807018</v>
       </c>
       <c r="D75">
-        <v>-0.07625358916310583</v>
+        <v>-0.08384570589192612</v>
       </c>
       <c r="E75">
-        <v>0.1338365453305339</v>
+        <v>0.040808788174414</v>
       </c>
       <c r="F75">
-        <v>-0.001085059735842617</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.03215246289822873</v>
+      </c>
+      <c r="G75">
+        <v>0.1011177012092777</v>
+      </c>
+      <c r="H75">
+        <v>0.2136498896179592</v>
+      </c>
+      <c r="I75">
+        <v>-0.03141287247388492</v>
+      </c>
+      <c r="J75">
+        <v>0.04417539645237324</v>
+      </c>
+      <c r="K75">
+        <v>-0.1331304539971747</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.009171877889590768</v>
+        <v>0.04595298783745102</v>
       </c>
       <c r="C76">
-        <v>0.1024905783565676</v>
+        <v>0.1247848021127196</v>
       </c>
       <c r="D76">
-        <v>-0.0692074297295414</v>
+        <v>-0.0743407992637221</v>
       </c>
       <c r="E76">
-        <v>0.07960411174831528</v>
+        <v>0.02090534624058644</v>
       </c>
       <c r="F76">
-        <v>0.04120947208310585</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.05857436065617178</v>
+      </c>
+      <c r="G76">
+        <v>0.05807703317734948</v>
+      </c>
+      <c r="H76">
+        <v>0.07645205819540078</v>
+      </c>
+      <c r="I76">
+        <v>-0.01451775128245275</v>
+      </c>
+      <c r="J76">
+        <v>0.04367809151649433</v>
+      </c>
+      <c r="K76">
+        <v>0.02222841131867144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.1060415498056972</v>
+        <v>0.05400886855908085</v>
       </c>
       <c r="C77">
-        <v>0.3600435070503291</v>
+        <v>0.4020705152077091</v>
       </c>
       <c r="D77">
-        <v>0.8469910404090061</v>
+        <v>0.8987294862417644</v>
       </c>
       <c r="E77">
-        <v>0.2822455297184219</v>
+        <v>0.008183679918776561</v>
       </c>
       <c r="F77">
-        <v>0.09963693002953258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01609153075015398</v>
+      </c>
+      <c r="G77">
+        <v>0.06862050280224431</v>
+      </c>
+      <c r="H77">
+        <v>0.03635331092819525</v>
+      </c>
+      <c r="I77">
+        <v>-0.08609868055267673</v>
+      </c>
+      <c r="J77">
+        <v>0.002762682658477009</v>
+      </c>
+      <c r="K77">
+        <v>-0.02183424912406263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02885565100076307</v>
+        <v>0.03869512221477701</v>
       </c>
       <c r="C78">
-        <v>0.1226671480825285</v>
+        <v>0.1120434782660781</v>
       </c>
       <c r="D78">
-        <v>-0.1632488109387241</v>
+        <v>-0.09280086664761097</v>
       </c>
       <c r="E78">
-        <v>-0.08019684491276034</v>
+        <v>-0.0320026786109164</v>
       </c>
       <c r="F78">
-        <v>0.1188423413622404</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04089065491375212</v>
+      </c>
+      <c r="G78">
+        <v>-0.02119498786584859</v>
+      </c>
+      <c r="H78">
+        <v>0.1134342986794437</v>
+      </c>
+      <c r="I78">
+        <v>-0.004128340428369823</v>
+      </c>
+      <c r="J78">
+        <v>-0.06617043985055181</v>
+      </c>
+      <c r="K78">
+        <v>0.06689579437263239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02148919970929313</v>
+        <v>0.05823600424935312</v>
       </c>
       <c r="C79">
-        <v>0.1549848427775086</v>
+        <v>0.1398302579152326</v>
       </c>
       <c r="D79">
-        <v>-0.1143875568187581</v>
+        <v>-0.06767868780773469</v>
       </c>
       <c r="E79">
-        <v>0.09537224126049512</v>
+        <v>0.02193306310823622</v>
       </c>
       <c r="F79">
-        <v>0.05880397757218146</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.05792709344969119</v>
+      </c>
+      <c r="G79">
+        <v>0.03519315994255518</v>
+      </c>
+      <c r="H79">
+        <v>0.2674271511692281</v>
+      </c>
+      <c r="I79">
+        <v>0.0007459421346346654</v>
+      </c>
+      <c r="J79">
+        <v>-0.03242263342300233</v>
+      </c>
+      <c r="K79">
+        <v>-0.06007990518999987</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.004789857473830108</v>
+        <v>0.01961850459399278</v>
       </c>
       <c r="C80">
-        <v>0.06323662349553881</v>
+        <v>0.04603618125677469</v>
       </c>
       <c r="D80">
-        <v>-0.02966592844127624</v>
+        <v>-0.03719170652326054</v>
       </c>
       <c r="E80">
-        <v>-0.04063215885331555</v>
+        <v>-0.009667183275404728</v>
       </c>
       <c r="F80">
-        <v>0.01001112824895615</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.01889260786813633</v>
+      </c>
+      <c r="G80">
+        <v>-0.0637430797837245</v>
+      </c>
+      <c r="H80">
+        <v>-0.07900799719317472</v>
+      </c>
+      <c r="I80">
+        <v>0.02375346758630145</v>
+      </c>
+      <c r="J80">
+        <v>0.01885187556757378</v>
+      </c>
+      <c r="K80">
+        <v>-0.02048255694107979</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.005502868377573895</v>
+        <v>0.01694344774349681</v>
       </c>
       <c r="C81">
-        <v>0.08178258072197557</v>
+        <v>0.0981809891835059</v>
       </c>
       <c r="D81">
-        <v>-0.06446184261043246</v>
+        <v>-0.05705073528657371</v>
       </c>
       <c r="E81">
-        <v>0.08424256225037781</v>
+        <v>0.02074665333349511</v>
       </c>
       <c r="F81">
-        <v>0.04543490189390679</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.03674290583781806</v>
+      </c>
+      <c r="G81">
+        <v>0.02129882387692531</v>
+      </c>
+      <c r="H81">
+        <v>0.1160674186089458</v>
+      </c>
+      <c r="I81">
+        <v>-0.02071195623072105</v>
+      </c>
+      <c r="J81">
+        <v>-0.04408182597225154</v>
+      </c>
+      <c r="K81">
+        <v>-0.04109480163059898</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.0188250744505024</v>
+        <v>0.04810739376665615</v>
       </c>
       <c r="C82">
-        <v>0.07800384717234862</v>
+        <v>0.1073586218680875</v>
       </c>
       <c r="D82">
-        <v>-0.07183802799826074</v>
+        <v>-0.06505148486912926</v>
       </c>
       <c r="E82">
-        <v>0.09328221399682611</v>
+        <v>0.01393442745099588</v>
       </c>
       <c r="F82">
-        <v>0.05027573329703133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.06571993848289637</v>
+      </c>
+      <c r="G82">
+        <v>0.04460896026319634</v>
+      </c>
+      <c r="H82">
+        <v>0.08028763083438543</v>
+      </c>
+      <c r="I82">
+        <v>-0.02644247910430302</v>
+      </c>
+      <c r="J82">
+        <v>0.02538760532718465</v>
+      </c>
+      <c r="K82">
+        <v>-0.01093596662723642</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.003744358724701659</v>
+        <v>0.0004433298257765414</v>
       </c>
       <c r="C83">
-        <v>0.004136594481189096</v>
+        <v>-0.01954771736998269</v>
       </c>
       <c r="D83">
-        <v>0.1148571894952564</v>
+        <v>0.0530855025961388</v>
       </c>
       <c r="E83">
-        <v>-0.5485767993214357</v>
+        <v>0.1159755345427459</v>
       </c>
       <c r="F83">
-        <v>0.7274264597346032</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.6688373223811322</v>
+      </c>
+      <c r="G83">
+        <v>-0.681931316375481</v>
+      </c>
+      <c r="H83">
+        <v>-0.007694480864224614</v>
+      </c>
+      <c r="I83">
+        <v>-0.005975435388949095</v>
+      </c>
+      <c r="J83">
+        <v>0.1127749715185993</v>
+      </c>
+      <c r="K83">
+        <v>0.05167598688317718</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.002737340278895954</v>
+        <v>0.01470485118093253</v>
       </c>
       <c r="C84">
-        <v>0.09441727125515398</v>
+        <v>0.06227587608613976</v>
       </c>
       <c r="D84">
-        <v>-0.02672351597507798</v>
+        <v>-0.08698477562853105</v>
       </c>
       <c r="E84">
-        <v>-0.07662950795178211</v>
+        <v>-0.3044985380032605</v>
       </c>
       <c r="F84">
-        <v>-0.1518070009282678</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.08211705556038762</v>
+      </c>
+      <c r="G84">
+        <v>-0.06396743635036195</v>
+      </c>
+      <c r="H84">
+        <v>-0.137397816911852</v>
+      </c>
+      <c r="I84">
+        <v>-0.6433927184379623</v>
+      </c>
+      <c r="J84">
+        <v>0.5947045956922757</v>
+      </c>
+      <c r="K84">
+        <v>-0.1545873947024047</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.002955218343934575</v>
+        <v>0.03169334459797489</v>
       </c>
       <c r="C85">
-        <v>0.1032450367753469</v>
+        <v>0.1147170560163217</v>
       </c>
       <c r="D85">
-        <v>-0.07352932589786586</v>
+        <v>-0.08026263560950121</v>
       </c>
       <c r="E85">
-        <v>0.08436516113184775</v>
+        <v>0.02594458459687067</v>
       </c>
       <c r="F85">
-        <v>0.05307306917826102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.09477612276433126</v>
+      </c>
+      <c r="G85">
+        <v>0.08808427546155535</v>
+      </c>
+      <c r="H85">
+        <v>0.2244123780666708</v>
+      </c>
+      <c r="I85">
+        <v>-0.008338069625561583</v>
+      </c>
+      <c r="J85">
+        <v>0.05057782058787687</v>
+      </c>
+      <c r="K85">
+        <v>-0.07237724599370242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01649322538863266</v>
+        <v>0.01492336083779751</v>
       </c>
       <c r="C86">
-        <v>0.08149159586414116</v>
+        <v>0.07836530161126561</v>
       </c>
       <c r="D86">
-        <v>0.008186643376366896</v>
+        <v>-0.03084704697578479</v>
       </c>
       <c r="E86">
-        <v>-0.01003160990879162</v>
+        <v>-0.06086700428668148</v>
       </c>
       <c r="F86">
-        <v>-0.01776381944684087</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02890062675616864</v>
+      </c>
+      <c r="G86">
+        <v>-0.06628835823311741</v>
+      </c>
+      <c r="H86">
+        <v>0.04934124003753357</v>
+      </c>
+      <c r="I86">
+        <v>0.08196709948558621</v>
+      </c>
+      <c r="J86">
+        <v>-0.08021795942968618</v>
+      </c>
+      <c r="K86">
+        <v>-0.1389821261093833</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.01461736004631015</v>
+        <v>0.02682876393102985</v>
       </c>
       <c r="C87">
-        <v>0.1661783992248479</v>
+        <v>0.1193098372101385</v>
       </c>
       <c r="D87">
-        <v>-0.04091619026224896</v>
+        <v>-0.02016584439751319</v>
       </c>
       <c r="E87">
-        <v>-0.09684145494178222</v>
+        <v>0.02795394747840475</v>
       </c>
       <c r="F87">
-        <v>-0.06975646897913272</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.03764852847192465</v>
+      </c>
+      <c r="G87">
+        <v>-0.03529300352906775</v>
+      </c>
+      <c r="H87">
+        <v>0.01310996650496127</v>
+      </c>
+      <c r="I87">
+        <v>-0.03893879833252614</v>
+      </c>
+      <c r="J87">
+        <v>-0.01082020496146096</v>
+      </c>
+      <c r="K87">
+        <v>0.1016752834707005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.008592215931939765</v>
+        <v>0.03915242114959179</v>
       </c>
       <c r="C88">
-        <v>0.03410049980763439</v>
+        <v>0.05901703457547567</v>
       </c>
       <c r="D88">
-        <v>-0.0433847346272273</v>
+        <v>-0.03812443245866573</v>
       </c>
       <c r="E88">
-        <v>0.05079502974490224</v>
+        <v>0.02014910919983814</v>
       </c>
       <c r="F88">
-        <v>0.01132850842153095</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.003136971602558277</v>
+      </c>
+      <c r="G88">
+        <v>0.02147373418851746</v>
+      </c>
+      <c r="H88">
+        <v>-0.007967939728258006</v>
+      </c>
+      <c r="I88">
+        <v>0.01226452814215176</v>
+      </c>
+      <c r="J88">
+        <v>-0.01424432687867036</v>
+      </c>
+      <c r="K88">
+        <v>0.01641044571865415</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4040673048124111</v>
+        <v>0.3895411072692987</v>
       </c>
       <c r="C89">
-        <v>-0.07676503377980035</v>
+        <v>-0.1245846130648098</v>
       </c>
       <c r="D89">
-        <v>-0.08078849451313908</v>
+        <v>0.03920630423187236</v>
       </c>
       <c r="E89">
-        <v>-0.06950897622071259</v>
+        <v>0.000887944370406755</v>
       </c>
       <c r="F89">
-        <v>-0.08858696655659287</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.06342425740583228</v>
+      </c>
+      <c r="G89">
+        <v>-0.007116701041321251</v>
+      </c>
+      <c r="H89">
+        <v>-0.02617515807257324</v>
+      </c>
+      <c r="I89">
+        <v>-0.05555894679363885</v>
+      </c>
+      <c r="J89">
+        <v>0.04981240729263704</v>
+      </c>
+      <c r="K89">
+        <v>0.7358655415015271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3129151903943542</v>
+        <v>0.315483970000183</v>
       </c>
       <c r="C90">
-        <v>-0.01932861034457628</v>
+        <v>-0.08065789474306384</v>
       </c>
       <c r="D90">
-        <v>-0.007605089902801455</v>
+        <v>0.02062191420686919</v>
       </c>
       <c r="E90">
-        <v>-0.05193208033138099</v>
+        <v>-0.008699742786350979</v>
       </c>
       <c r="F90">
-        <v>0.04694118959288444</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01614952276594951</v>
+      </c>
+      <c r="G90">
+        <v>-0.02801660109738964</v>
+      </c>
+      <c r="H90">
+        <v>0.002120527488234967</v>
+      </c>
+      <c r="I90">
+        <v>-0.0112686820225551</v>
+      </c>
+      <c r="J90">
+        <v>0.004676484550045454</v>
+      </c>
+      <c r="K90">
+        <v>-0.1044439518713187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.01918210599469368</v>
+        <v>0.05632797749462732</v>
       </c>
       <c r="C91">
-        <v>0.0749153344195435</v>
+        <v>0.07761368126324866</v>
       </c>
       <c r="D91">
-        <v>-0.06240772372313771</v>
+        <v>-0.05253344425157171</v>
       </c>
       <c r="E91">
-        <v>0.04393835001141561</v>
+        <v>0.04242445405566877</v>
       </c>
       <c r="F91">
-        <v>0.04755184262083689</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.0569314515972351</v>
+      </c>
+      <c r="G91">
+        <v>0.003595401292248933</v>
+      </c>
+      <c r="H91">
+        <v>0.08483317956349658</v>
+      </c>
+      <c r="I91">
+        <v>0.00847907952569397</v>
+      </c>
+      <c r="J91">
+        <v>0.03208775632473154</v>
+      </c>
+      <c r="K91">
+        <v>-0.005976343434191093</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3773006561407063</v>
+        <v>0.3500864307253976</v>
       </c>
       <c r="C92">
-        <v>-0.06237871485617119</v>
+        <v>-0.1256609186889829</v>
       </c>
       <c r="D92">
-        <v>0.01449240616566762</v>
+        <v>0.05612508930400607</v>
       </c>
       <c r="E92">
-        <v>0.00825360349417819</v>
+        <v>-0.002941244905149843</v>
       </c>
       <c r="F92">
-        <v>-0.1219982378156335</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.06444978398457818</v>
+      </c>
+      <c r="G92">
+        <v>-0.009067138085613911</v>
+      </c>
+      <c r="H92">
+        <v>0.01097489288320871</v>
+      </c>
+      <c r="I92">
+        <v>-0.03247605846247741</v>
+      </c>
+      <c r="J92">
+        <v>-0.06654312206904693</v>
+      </c>
+      <c r="K92">
+        <v>-0.1371503283455595</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3081359725232577</v>
+        <v>0.307124692232486</v>
       </c>
       <c r="C93">
-        <v>-0.0750883513829553</v>
+        <v>-0.1247325022265529</v>
       </c>
       <c r="D93">
-        <v>-0.007673121552596712</v>
+        <v>0.008401492770984937</v>
       </c>
       <c r="E93">
-        <v>-0.07893028682530037</v>
+        <v>-0.02921709629708332</v>
       </c>
       <c r="F93">
-        <v>-0.04006943226916593</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.02968846894305543</v>
+      </c>
+      <c r="G93">
+        <v>-0.03547234970983441</v>
+      </c>
+      <c r="H93">
+        <v>0.03968407241160577</v>
+      </c>
+      <c r="I93">
+        <v>-0.008054102458546805</v>
+      </c>
+      <c r="J93">
+        <v>-0.02835755722844358</v>
+      </c>
+      <c r="K93">
+        <v>-0.1239080404633562</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.02598550814817525</v>
+        <v>0.0834770383503501</v>
       </c>
       <c r="C94">
-        <v>0.1878181778860055</v>
+        <v>0.1627628592407847</v>
       </c>
       <c r="D94">
-        <v>-0.1358905177852303</v>
+        <v>-0.1129187563101942</v>
       </c>
       <c r="E94">
-        <v>0.1299898877773407</v>
+        <v>0.04406322716966211</v>
       </c>
       <c r="F94">
-        <v>-0.04919984887233685</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1020092175221625</v>
+      </c>
+      <c r="G94">
+        <v>0.08222254337531244</v>
+      </c>
+      <c r="H94">
+        <v>0.5251222338136082</v>
+      </c>
+      <c r="I94">
+        <v>0.08915966696732426</v>
+      </c>
+      <c r="J94">
+        <v>0.2536467528118166</v>
+      </c>
+      <c r="K94">
+        <v>0.05713832984980837</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.0211222554386394</v>
+        <v>0.04347594500980632</v>
       </c>
       <c r="C95">
-        <v>0.1235227584812643</v>
+        <v>0.1323349925017721</v>
       </c>
       <c r="D95">
-        <v>-0.05302038725717567</v>
+        <v>-0.06415376802660898</v>
       </c>
       <c r="E95">
-        <v>0.08043522774284603</v>
+        <v>0.005022426574297136</v>
       </c>
       <c r="F95">
-        <v>0.1067254055710024</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.02942188003080273</v>
+      </c>
+      <c r="G95">
+        <v>0.08310022206624561</v>
+      </c>
+      <c r="H95">
+        <v>-0.04428407295268515</v>
+      </c>
+      <c r="I95">
+        <v>-0.09822027947057257</v>
+      </c>
+      <c r="J95">
+        <v>0.0457494904190531</v>
+      </c>
+      <c r="K95">
+        <v>0.1800984498427459</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.001523929455608548</v>
+        <v>0.02336277977261036</v>
       </c>
       <c r="C97">
-        <v>0.001290946430410562</v>
+        <v>0.02828462358027007</v>
       </c>
       <c r="D97">
-        <v>-0.001325090335951071</v>
+        <v>0.007254592255929592</v>
       </c>
       <c r="E97">
-        <v>0.0026686382040242</v>
+        <v>-0.06253659148087193</v>
       </c>
       <c r="F97">
-        <v>-0.004319816527875496</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.008473799460223617</v>
+      </c>
+      <c r="G97">
+        <v>0.02444379848558884</v>
+      </c>
+      <c r="H97">
+        <v>-0.03157159192245766</v>
+      </c>
+      <c r="I97">
+        <v>0.03783205355916585</v>
+      </c>
+      <c r="J97">
+        <v>-0.03306385224276968</v>
+      </c>
+      <c r="K97">
+        <v>0.04513400274471367</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.08694414778074894</v>
+        <v>0.1392803113077929</v>
       </c>
       <c r="C98">
-        <v>0.1526504788563609</v>
+        <v>0.159901828082624</v>
       </c>
       <c r="D98">
-        <v>-0.1443266975017391</v>
+        <v>-0.08905943493976956</v>
       </c>
       <c r="E98">
-        <v>0.1367872313826819</v>
+        <v>0.1025477240755182</v>
       </c>
       <c r="F98">
-        <v>0.1296480047241164</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1431078484521825</v>
+      </c>
+      <c r="G98">
+        <v>0.1561387822035329</v>
+      </c>
+      <c r="H98">
+        <v>-0.313878330910801</v>
+      </c>
+      <c r="I98">
+        <v>0.2297830178977134</v>
+      </c>
+      <c r="J98">
+        <v>0.1755091609595905</v>
+      </c>
+      <c r="K98">
+        <v>-0.1365815643433994</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.0318002116552082</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.0656294407668087</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.001024221257277385</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.8937955326743403</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.248400897394026</v>
+      </c>
+      <c r="G99">
+        <v>0.07314348210950733</v>
+      </c>
+      <c r="H99">
+        <v>-0.003679109202594185</v>
+      </c>
+      <c r="I99">
+        <v>0.2564208423483363</v>
+      </c>
+      <c r="J99">
+        <v>-0.1112341795340048</v>
+      </c>
+      <c r="K99">
+        <v>0.07163135671381522</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.006971981402883645</v>
+        <v>0.01786451430794036</v>
       </c>
       <c r="C101">
-        <v>0.08359089596051442</v>
+        <v>0.08116154368357922</v>
       </c>
       <c r="D101">
-        <v>-0.04888857408374263</v>
+        <v>-0.04842769801931333</v>
       </c>
       <c r="E101">
-        <v>-0.001414942500791447</v>
+        <v>0.01962690851915268</v>
       </c>
       <c r="F101">
-        <v>0.04264945891172486</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.02719406732420381</v>
+      </c>
+      <c r="G101">
+        <v>-0.02885419543960057</v>
+      </c>
+      <c r="H101">
+        <v>-0.129019990528859</v>
+      </c>
+      <c r="I101">
+        <v>-0.190784414199924</v>
+      </c>
+      <c r="J101">
+        <v>-0.2001900343399376</v>
+      </c>
+      <c r="K101">
+        <v>0.03609699423766735</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.004613367888053934</v>
+        <v>0.002241845656270081</v>
       </c>
       <c r="C102">
-        <v>0.01404222190372983</v>
+        <v>0.005506370595425979</v>
       </c>
       <c r="D102">
-        <v>0.002809271579609978</v>
+        <v>0.003060878075701448</v>
       </c>
       <c r="E102">
-        <v>0.01676043726626038</v>
+        <v>0.00257317172474725</v>
       </c>
       <c r="F102">
-        <v>0.01220048886376899</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.00260110476856567</v>
+      </c>
+      <c r="G102">
+        <v>0.001891937858758832</v>
+      </c>
+      <c r="H102">
+        <v>0.004531419629270542</v>
+      </c>
+      <c r="I102">
+        <v>-0.003470773559551646</v>
+      </c>
+      <c r="J102">
+        <v>-0.006278458833952358</v>
+      </c>
+      <c r="K102">
+        <v>0.01531539975128861</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
